--- a/Config Files/Outputs_V0.xlsx
+++ b/Config Files/Outputs_V0.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AADE38-E502-4227-922D-30D2015DA0F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0525E-BDD0-4500-9FFB-BB3CE5B80153}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,13 +476,18 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
